--- a/biology/Botanique/Cheirostylis/Cheirostylis.xlsx
+++ b/biology/Botanique/Cheirostylis/Cheirostylis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheirostylis est un genre de plantes de la famille des Orchidaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (31 octobre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (31 octobre 2017) :
 Cheirostylis bidentata J.J.Sm.
 Cheirostylis bipunctata Aver.
 Cheirostylis calcarata X.H.Jin &amp; S.C.Chen
@@ -566,14 +580,14 @@
 Cheirostylis tippica A.N.Rao
 Cheirostylis tortilacinia C.S.Leou
 Cheirostylis yunnanensis Rolfe
-Selon NCBI  (31 octobre 2017)[3] :
+Selon NCBI  (31 octobre 2017) :
 Cheirostylis chinensis
 Cheirostylis cochinchinensis
 Cheirostylis merrillii
 Cheirostylis tabiyahanensis
 Cheirostylis takeoi
 Cheirostylis yunnanensis
-Selon The Plant List            (31 octobre 2017)[4] :
+Selon The Plant List            (31 octobre 2017) :
 Cheirostylis bidentata J.J.Sm.
 Cheirostylis bipunctata Aver.
 Cheirostylis calcarata X.H.Jin &amp; S.C.Chen
@@ -628,7 +642,7 @@
 Cheirostylis tippica A.N.Rao
 Cheirostylis tortilacinia C.S.Leou
 Cheirostylis yunnanensis Rolfe
-Selon Tropicos                                           (31 octobre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Cheirostylis anomala Ohwi
 Cheirostylis bhotanensis Tang &amp; F.T. Wang
 Cheirostylis bidentata J.J. Sm.
